--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DCB6CB-73BD-FB4B-BA0B-10CF131973BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92114479-6128-2E46-A601-B323F7D00339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3377,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="F23" sqref="A1:R222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92114479-6128-2E46-A601-B323F7D00339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8319F-1E41-184E-98A1-C96953F851FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="635">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1747,6 +1748,198 @@
   </si>
   <si>
     <t>Rhinopithecus bieti</t>
+  </si>
+  <si>
+    <t>NM_001142837</t>
+  </si>
+  <si>
+    <t>NW_016529666</t>
+  </si>
+  <si>
+    <t>XM_011973358</t>
+  </si>
+  <si>
+    <t>XM_012775211</t>
+  </si>
+  <si>
+    <t>XM_015820664</t>
+  </si>
+  <si>
+    <t>XM_029924289</t>
+  </si>
+  <si>
+    <t>XM_030796492</t>
+  </si>
+  <si>
+    <t>XM_032273584</t>
+  </si>
+  <si>
+    <t>XM_032326013</t>
+  </si>
+  <si>
+    <t>XM_032850864</t>
+  </si>
+  <si>
+    <t>XM_033226159</t>
+  </si>
+  <si>
+    <t>XM_008173201</t>
+  </si>
+  <si>
+    <t>Protobothrops mucrosquamatus</t>
+  </si>
+  <si>
+    <t>Gorilla gorilla gorilla</t>
+  </si>
+  <si>
+    <t>Suricata suricatta</t>
+  </si>
+  <si>
+    <t>Sapajus apella</t>
+  </si>
+  <si>
+    <t>Mustela erminea</t>
+  </si>
+  <si>
+    <t>Lontra canadensis</t>
+  </si>
+  <si>
+    <t>Trachypithecus francoisi</t>
+  </si>
+  <si>
+    <t>Chrysemys picta bellii</t>
+  </si>
+  <si>
+    <t>Mandrillus</t>
+  </si>
+  <si>
+    <t>Cheirogaleidae</t>
+  </si>
+  <si>
+    <t>Microcebus</t>
+  </si>
+  <si>
+    <t>Lepidosauria</t>
+  </si>
+  <si>
+    <t>Squamata</t>
+  </si>
+  <si>
+    <t>Viperidae</t>
+  </si>
+  <si>
+    <t>Protobothrops</t>
+  </si>
+  <si>
+    <t>Rhinopithecus</t>
+  </si>
+  <si>
+    <t>Piliocolobus</t>
+  </si>
+  <si>
+    <t>Pongo</t>
+  </si>
+  <si>
+    <t>Theropithecus</t>
+  </si>
+  <si>
+    <t>Herpestidae</t>
+  </si>
+  <si>
+    <t>Suricata</t>
+  </si>
+  <si>
+    <t>Sapajus</t>
+  </si>
+  <si>
+    <t>Mustela</t>
+  </si>
+  <si>
+    <t>Lontra</t>
+  </si>
+  <si>
+    <t>Trachypithecus</t>
+  </si>
+  <si>
+    <t>Testudines</t>
+  </si>
+  <si>
+    <t>Emydidae</t>
+  </si>
+  <si>
+    <t>Chrysemys</t>
+  </si>
+  <si>
+    <t>Saimiri</t>
+  </si>
+  <si>
+    <t>Aotidae</t>
+  </si>
+  <si>
+    <t>Aotus</t>
+  </si>
+  <si>
+    <t>Cercocebus</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-3</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-4</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-5</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-6</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-7</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-8</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-9</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-10</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-11</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-12</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-13</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-14</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-15</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-16</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-17</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-18</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-19</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-20</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-21</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-22</t>
   </si>
 </sst>
 </file>
@@ -3375,10 +3568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R222"/>
+  <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="F23" sqref="A1:R222"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C239" sqref="A1:R241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12092,13 +12285,27 @@
         <v>308</v>
       </c>
       <c r="H188" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" s="11"/>
-      <c r="J188" s="17"/>
+      <c r="J188" s="7"/>
       <c r="K188" s="11">
         <v>2</v>
       </c>
+      <c r="L188" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M188" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N188" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O188" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
       <c r="R188" s="7"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
@@ -12124,13 +12331,27 @@
         <v>308</v>
       </c>
       <c r="H189" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I189" s="11"/>
       <c r="J189" s="7"/>
       <c r="K189" s="11">
         <v>2</v>
       </c>
+      <c r="L189" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M189" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N189" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O189" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
@@ -12156,13 +12377,27 @@
         <v>308</v>
       </c>
       <c r="H190" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="7"/>
       <c r="K190" s="11">
         <v>2</v>
       </c>
+      <c r="L190" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M190" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N190" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="O190" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
       <c r="R190" s="7"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
@@ -12188,13 +12423,27 @@
         <v>308</v>
       </c>
       <c r="H191" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I191" s="11"/>
-      <c r="J191" s="17"/>
+      <c r="J191" s="7"/>
       <c r="K191" s="11">
         <v>2</v>
       </c>
+      <c r="L191" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M191" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N191" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O191" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
       <c r="R191" s="7"/>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
@@ -12220,13 +12469,27 @@
         <v>308</v>
       </c>
       <c r="H192" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="7"/>
       <c r="K192" s="11">
         <v>2</v>
       </c>
+      <c r="L192" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M192" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N192" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O192" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
       <c r="R192" s="7"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
@@ -12252,13 +12515,27 @@
         <v>308</v>
       </c>
       <c r="H193" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I193" s="11"/>
       <c r="J193" s="7"/>
       <c r="K193" s="11">
         <v>2</v>
       </c>
+      <c r="L193" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M193" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N193" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O193" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
@@ -12284,13 +12561,27 @@
         <v>308</v>
       </c>
       <c r="H194" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I194" s="11"/>
-      <c r="J194" s="17"/>
+      <c r="J194" s="7"/>
       <c r="K194" s="11">
         <v>2</v>
       </c>
+      <c r="L194" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M194" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N194" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O194" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
       <c r="R194" s="7"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
@@ -12316,13 +12607,27 @@
         <v>308</v>
       </c>
       <c r="H195" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I195" s="11"/>
       <c r="J195" s="7"/>
       <c r="K195" s="11">
         <v>2</v>
       </c>
+      <c r="L195" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M195" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N195" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O195" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
       <c r="R195" s="7"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
@@ -12348,13 +12653,27 @@
         <v>308</v>
       </c>
       <c r="H196" s="11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I196" s="11"/>
       <c r="J196" s="7"/>
       <c r="K196" s="11">
         <v>2</v>
       </c>
+      <c r="L196" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M196" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N196" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O196" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
       <c r="R196" s="7"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
@@ -12380,13 +12699,27 @@
         <v>308</v>
       </c>
       <c r="H197" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I197" s="11"/>
-      <c r="J197" s="17"/>
+      <c r="J197" s="7"/>
       <c r="K197" s="11">
         <v>2</v>
       </c>
+      <c r="L197" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M197" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N197" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O197" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
       <c r="R197" s="7"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
@@ -12412,13 +12745,27 @@
         <v>308</v>
       </c>
       <c r="H198" s="11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I198" s="11"/>
       <c r="J198" s="7"/>
       <c r="K198" s="11">
         <v>2</v>
       </c>
+      <c r="L198" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M198" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N198" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O198" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="7"/>
       <c r="R198" s="7"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
@@ -12444,13 +12791,27 @@
         <v>308</v>
       </c>
       <c r="H199" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I199" s="11"/>
       <c r="J199" s="7"/>
       <c r="K199" s="11">
         <v>2</v>
       </c>
+      <c r="L199" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M199" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N199" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O199" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
       <c r="R199" s="7"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
@@ -12476,13 +12837,27 @@
         <v>308</v>
       </c>
       <c r="H200" s="11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I200" s="11"/>
-      <c r="J200" s="17"/>
+      <c r="J200" s="7"/>
       <c r="K200" s="11">
         <v>2</v>
       </c>
+      <c r="L200" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M200" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N200" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O200" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="7"/>
       <c r="R200" s="7"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
@@ -12508,13 +12883,27 @@
         <v>308</v>
       </c>
       <c r="H201" s="11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I201" s="11"/>
       <c r="J201" s="7"/>
       <c r="K201" s="11">
         <v>2</v>
       </c>
+      <c r="L201" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M201" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N201" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O201" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="7"/>
       <c r="R201" s="7"/>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
@@ -12540,13 +12929,27 @@
         <v>308</v>
       </c>
       <c r="H202" s="11">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I202" s="11"/>
       <c r="J202" s="7"/>
       <c r="K202" s="11">
         <v>2</v>
       </c>
+      <c r="L202" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M202" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N202" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O202" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P202" s="7"/>
+      <c r="Q202" s="7"/>
       <c r="R202" s="7"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
@@ -12572,13 +12975,27 @@
         <v>308</v>
       </c>
       <c r="H203" s="11">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I203" s="11"/>
-      <c r="J203" s="17"/>
+      <c r="J203" s="7"/>
       <c r="K203" s="11">
         <v>2</v>
       </c>
+      <c r="L203" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M203" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N203" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O203" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P203" s="7"/>
+      <c r="Q203" s="7"/>
       <c r="R203" s="7"/>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
@@ -12604,13 +13021,27 @@
         <v>308</v>
       </c>
       <c r="H204" s="11">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="7"/>
       <c r="K204" s="11">
         <v>2</v>
       </c>
+      <c r="L204" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M204" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O204" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P204" s="7"/>
+      <c r="Q204" s="7"/>
       <c r="R204" s="7"/>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
@@ -12636,13 +13067,27 @@
         <v>308</v>
       </c>
       <c r="H205" s="11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I205" s="11"/>
       <c r="J205" s="7"/>
       <c r="K205" s="11">
         <v>2</v>
       </c>
+      <c r="L205" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M205" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N205" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O205" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P205" s="7"/>
+      <c r="Q205" s="7"/>
       <c r="R205" s="7"/>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
@@ -12668,13 +13113,27 @@
         <v>308</v>
       </c>
       <c r="H206" s="11">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I206" s="11"/>
-      <c r="J206" s="17"/>
+      <c r="J206" s="7"/>
       <c r="K206" s="11">
         <v>2</v>
       </c>
+      <c r="L206" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M206" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N206" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O206" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P206" s="7"/>
+      <c r="Q206" s="7"/>
       <c r="R206" s="7"/>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
@@ -12700,13 +13159,27 @@
         <v>308</v>
       </c>
       <c r="H207" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I207" s="11"/>
       <c r="J207" s="7"/>
       <c r="K207" s="11">
         <v>2</v>
       </c>
+      <c r="L207" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M207" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N207" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="O207" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P207" s="7"/>
+      <c r="Q207" s="7"/>
       <c r="R207" s="7"/>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
@@ -12732,13 +13205,27 @@
         <v>308</v>
       </c>
       <c r="H208" s="11">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="7"/>
       <c r="K208" s="11">
         <v>2</v>
       </c>
+      <c r="L208" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M208" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N208" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O208" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P208" s="7"/>
+      <c r="Q208" s="7"/>
       <c r="R208" s="7"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
@@ -12764,13 +13251,27 @@
         <v>308</v>
       </c>
       <c r="H209" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I209" s="11"/>
-      <c r="J209" s="17"/>
+      <c r="J209" s="7"/>
       <c r="K209" s="11">
         <v>2</v>
       </c>
+      <c r="L209" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M209" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N209" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O209" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P209" s="7"/>
+      <c r="Q209" s="7"/>
       <c r="R209" s="7"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
@@ -12796,13 +13297,27 @@
         <v>308</v>
       </c>
       <c r="H210" s="11">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="7"/>
       <c r="K210" s="11">
         <v>2</v>
       </c>
+      <c r="L210" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M210" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N210" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O210" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P210" s="7"/>
+      <c r="Q210" s="7"/>
       <c r="R210" s="7"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
@@ -12828,13 +13343,27 @@
         <v>308</v>
       </c>
       <c r="H211" s="11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I211" s="11"/>
       <c r="J211" s="7"/>
       <c r="K211" s="11">
         <v>2</v>
       </c>
+      <c r="L211" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M211" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N211" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O211" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P211" s="7"/>
+      <c r="Q211" s="7"/>
       <c r="R211" s="7"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
@@ -12860,13 +13389,27 @@
         <v>308</v>
       </c>
       <c r="H212" s="11">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I212" s="11"/>
-      <c r="J212" s="17"/>
+      <c r="J212" s="7"/>
       <c r="K212" s="11">
         <v>2</v>
       </c>
+      <c r="L212" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M212" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N212" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O212" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P212" s="7"/>
+      <c r="Q212" s="7"/>
       <c r="R212" s="7"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
@@ -12892,13 +13435,27 @@
         <v>308</v>
       </c>
       <c r="H213" s="11">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I213" s="11"/>
       <c r="J213" s="7"/>
       <c r="K213" s="11">
         <v>2</v>
       </c>
+      <c r="L213" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M213" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N213" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O213" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P213" s="7"/>
+      <c r="Q213" s="7"/>
       <c r="R213" s="7"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
@@ -12924,13 +13481,27 @@
         <v>308</v>
       </c>
       <c r="H214" s="11">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I214" s="11"/>
       <c r="J214" s="7"/>
       <c r="K214" s="11">
         <v>2</v>
       </c>
+      <c r="L214" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M214" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N214" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O214" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P214" s="7"/>
+      <c r="Q214" s="7"/>
       <c r="R214" s="7"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
@@ -12956,13 +13527,27 @@
         <v>308</v>
       </c>
       <c r="H215" s="11">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I215" s="11"/>
-      <c r="J215" s="17"/>
+      <c r="J215" s="7"/>
       <c r="K215" s="11">
         <v>2</v>
       </c>
+      <c r="L215" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M215" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N215" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O215" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="7"/>
       <c r="R215" s="7"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
@@ -12988,13 +13573,27 @@
         <v>308</v>
       </c>
       <c r="H216" s="11">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I216" s="11"/>
       <c r="J216" s="7"/>
       <c r="K216" s="11">
         <v>2</v>
       </c>
+      <c r="L216" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M216" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N216" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O216" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P216" s="7"/>
+      <c r="Q216" s="7"/>
       <c r="R216" s="7"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
@@ -13020,13 +13619,27 @@
         <v>308</v>
       </c>
       <c r="H217" s="11">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I217" s="11"/>
       <c r="J217" s="7"/>
       <c r="K217" s="11">
         <v>2</v>
       </c>
+      <c r="L217" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M217" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N217" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O217" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P217" s="7"/>
+      <c r="Q217" s="7"/>
       <c r="R217" s="7"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
@@ -13052,13 +13665,27 @@
         <v>308</v>
       </c>
       <c r="H218" s="11">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I218" s="11"/>
-      <c r="J218" s="17"/>
+      <c r="J218" s="7"/>
       <c r="K218" s="11">
         <v>2</v>
       </c>
+      <c r="L218" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O218" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P218" s="7"/>
+      <c r="Q218" s="7"/>
       <c r="R218" s="7"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
@@ -13084,13 +13711,27 @@
         <v>308</v>
       </c>
       <c r="H219" s="11">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I219" s="11"/>
       <c r="J219" s="7"/>
       <c r="K219" s="11">
         <v>2</v>
       </c>
+      <c r="L219" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M219" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N219" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O219" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P219" s="7"/>
+      <c r="Q219" s="7"/>
       <c r="R219" s="7"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
@@ -13116,13 +13757,27 @@
         <v>308</v>
       </c>
       <c r="H220" s="11">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I220" s="11"/>
       <c r="J220" s="7"/>
       <c r="K220" s="11">
         <v>2</v>
       </c>
+      <c r="L220" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M220" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N220" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O220" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P220" s="7"/>
+      <c r="Q220" s="7"/>
       <c r="R220" s="7"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.2">
@@ -13148,13 +13803,27 @@
         <v>308</v>
       </c>
       <c r="H221" s="11">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I221" s="11"/>
-      <c r="J221" s="17"/>
+      <c r="J221" s="7"/>
       <c r="K221" s="11">
         <v>2</v>
       </c>
+      <c r="L221" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M221" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N221" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O221" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P221" s="7"/>
+      <c r="Q221" s="7"/>
       <c r="R221" s="7"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.2">
@@ -13180,14 +13849,902 @@
         <v>308</v>
       </c>
       <c r="H222" s="11">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I222" s="11"/>
       <c r="J222" s="7"/>
       <c r="K222" s="11">
         <v>2</v>
       </c>
+      <c r="L222" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M222" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N222" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="O222" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P222" s="7"/>
+      <c r="Q222" s="7"/>
       <c r="R222" s="7"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A223" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G223" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H223" s="11">
+        <v>2</v>
+      </c>
+      <c r="I223" s="11"/>
+      <c r="J223" s="7"/>
+      <c r="K223" s="11">
+        <v>2</v>
+      </c>
+      <c r="L223" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M223" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N223" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O223" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="7"/>
+      <c r="R223" s="7"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A224" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G224" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H224" s="11">
+        <v>2</v>
+      </c>
+      <c r="I224" s="11"/>
+      <c r="J224" s="7"/>
+      <c r="K224" s="11">
+        <v>2</v>
+      </c>
+      <c r="L224" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M224" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N224" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O224" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P224" s="7"/>
+      <c r="Q224" s="7"/>
+      <c r="R224" s="7"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A225" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H225" s="11">
+        <v>2</v>
+      </c>
+      <c r="I225" s="11"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="11">
+        <v>2</v>
+      </c>
+      <c r="L225" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M225" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N225" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O225" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P225" s="7"/>
+      <c r="Q225" s="7"/>
+      <c r="R225" s="7"/>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A226" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G226" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H226" s="11">
+        <v>2</v>
+      </c>
+      <c r="I226" s="11"/>
+      <c r="J226" s="7"/>
+      <c r="K226" s="11">
+        <v>2</v>
+      </c>
+      <c r="L226" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M226" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N226" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="O226" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P226" s="7"/>
+      <c r="Q226" s="7"/>
+      <c r="R226" s="7"/>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A227" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H227" s="11">
+        <v>2</v>
+      </c>
+      <c r="I227" s="11"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="11">
+        <v>2</v>
+      </c>
+      <c r="L227" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M227" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="N227" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="O227" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P227" s="7"/>
+      <c r="Q227" s="7"/>
+      <c r="R227" s="7"/>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A228" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H228" s="11">
+        <v>2</v>
+      </c>
+      <c r="I228" s="11"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="11">
+        <v>2</v>
+      </c>
+      <c r="L228" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M228" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N228" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O228" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P228" s="7"/>
+      <c r="Q228" s="7"/>
+      <c r="R228" s="7"/>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A229" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G229" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H229" s="11">
+        <v>2</v>
+      </c>
+      <c r="I229" s="11"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="11">
+        <v>2</v>
+      </c>
+      <c r="L229" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M229" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N229" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O229" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P229" s="7"/>
+      <c r="Q229" s="7"/>
+      <c r="R229" s="7"/>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A230" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G230" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H230" s="11">
+        <v>2</v>
+      </c>
+      <c r="I230" s="11"/>
+      <c r="J230" s="7"/>
+      <c r="K230" s="11">
+        <v>2</v>
+      </c>
+      <c r="L230" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M230" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N230" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O230" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P230" s="7"/>
+      <c r="Q230" s="7"/>
+      <c r="R230" s="7"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A231" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G231" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H231" s="11">
+        <v>2</v>
+      </c>
+      <c r="I231" s="11"/>
+      <c r="J231" s="7"/>
+      <c r="K231" s="11">
+        <v>2</v>
+      </c>
+      <c r="L231" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M231" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N231" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O231" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P231" s="7"/>
+      <c r="Q231" s="7"/>
+      <c r="R231" s="7"/>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A232" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G232" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H232" s="11">
+        <v>2</v>
+      </c>
+      <c r="I232" s="11"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="11">
+        <v>2</v>
+      </c>
+      <c r="L232" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M232" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N232" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O232" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P232" s="7"/>
+      <c r="Q232" s="7"/>
+      <c r="R232" s="7"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A233" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H233" s="11">
+        <v>2</v>
+      </c>
+      <c r="I233" s="11"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="11">
+        <v>2</v>
+      </c>
+      <c r="L233" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M233" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N233" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O233" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="7"/>
+      <c r="R233" s="7"/>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A234" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H234" s="11">
+        <v>2</v>
+      </c>
+      <c r="I234" s="11"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="11">
+        <v>2</v>
+      </c>
+      <c r="L234" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M234" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N234" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O234" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="7"/>
+      <c r="R234" s="7"/>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A235" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G235" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H235" s="11">
+        <v>2</v>
+      </c>
+      <c r="I235" s="11"/>
+      <c r="J235" s="7"/>
+      <c r="K235" s="11">
+        <v>2</v>
+      </c>
+      <c r="L235" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M235" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N235" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O235" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="7"/>
+      <c r="R235" s="7"/>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A236" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H236" s="11">
+        <v>2</v>
+      </c>
+      <c r="I236" s="11"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="11">
+        <v>2</v>
+      </c>
+      <c r="L236" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M236" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N236" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="O236" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="7"/>
+      <c r="R236" s="7"/>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A237" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G237" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H237" s="11">
+        <v>2</v>
+      </c>
+      <c r="I237" s="11"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="11">
+        <v>2</v>
+      </c>
+      <c r="L237" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M237" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N237" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O237" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P237" s="7"/>
+      <c r="Q237" s="7"/>
+      <c r="R237" s="7"/>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A238" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G238" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H238" s="11">
+        <v>2</v>
+      </c>
+      <c r="I238" s="11"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="11">
+        <v>2</v>
+      </c>
+      <c r="L238" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M238" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N238" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O238" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P238" s="7"/>
+      <c r="Q238" s="7"/>
+      <c r="R238" s="7"/>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A239" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H239" s="11">
+        <v>2</v>
+      </c>
+      <c r="I239" s="11"/>
+      <c r="J239" s="7"/>
+      <c r="K239" s="11">
+        <v>2</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M239" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N239" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="O239" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P239" s="7"/>
+      <c r="Q239" s="7"/>
+      <c r="R239" s="7"/>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A240" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G240" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H240" s="11">
+        <v>2</v>
+      </c>
+      <c r="I240" s="11"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="11">
+        <v>2</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M240" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N240" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="O240" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P240" s="7"/>
+      <c r="Q240" s="7"/>
+      <c r="R240" s="7"/>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A241" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G241" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H241" s="11">
+        <v>2</v>
+      </c>
+      <c r="I241" s="11"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="11">
+        <v>2</v>
+      </c>
+      <c r="L241" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M241" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N241" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O241" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P241" s="7"/>
+      <c r="Q241" s="7"/>
+      <c r="R241" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q187">
@@ -13471,4 +15028,65 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF7843F-ECBD-FB43-973C-50114BB7C454}">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="11">
+        <v>2</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8319F-1E41-184E-98A1-C96953F851FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E181E4D-F6A3-1B4D-B9F3-D77AF4E5B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="629">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1783,9 +1782,6 @@
     <t>XM_033226159</t>
   </si>
   <si>
-    <t>XM_008173201</t>
-  </si>
-  <si>
     <t>Protobothrops mucrosquamatus</t>
   </si>
   <si>
@@ -1807,9 +1803,6 @@
     <t>Trachypithecus francoisi</t>
   </si>
   <si>
-    <t>Chrysemys picta bellii</t>
-  </si>
-  <si>
     <t>Mandrillus</t>
   </si>
   <si>
@@ -1861,15 +1854,6 @@
     <t>Trachypithecus</t>
   </si>
   <si>
-    <t>Testudines</t>
-  </si>
-  <si>
-    <t>Emydidae</t>
-  </si>
-  <si>
-    <t>Chrysemys</t>
-  </si>
-  <si>
     <t>Saimiri</t>
   </si>
   <si>
@@ -1937,9 +1921,6 @@
   </si>
   <si>
     <t>IFNL-B-Mammal-21</t>
-  </si>
-  <si>
-    <t>IFNL-B-Mammal-22</t>
   </si>
 </sst>
 </file>
@@ -3570,7 +3551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+    <sheetView topLeftCell="A236" workbookViewId="0">
       <selection activeCell="C239" sqref="A1:R241"/>
     </sheetView>
   </sheetViews>
@@ -12302,7 +12283,7 @@
         <v>113</v>
       </c>
       <c r="O188" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
@@ -12391,10 +12372,10 @@
         <v>73</v>
       </c>
       <c r="N190" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O190" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
@@ -12440,7 +12421,7 @@
         <v>97</v>
       </c>
       <c r="O191" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P191" s="7"/>
       <c r="Q191" s="7"/>
@@ -12578,7 +12559,7 @@
         <v>72</v>
       </c>
       <c r="O194" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P194" s="7"/>
       <c r="Q194" s="7"/>
@@ -12624,7 +12605,7 @@
         <v>72</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
@@ -12762,7 +12743,7 @@
         <v>97</v>
       </c>
       <c r="O198" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
@@ -12808,7 +12789,7 @@
         <v>97</v>
       </c>
       <c r="O199" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
@@ -12992,7 +12973,7 @@
         <v>97</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
@@ -13038,7 +13019,7 @@
         <v>97</v>
       </c>
       <c r="O204" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="P204" s="7"/>
       <c r="Q204" s="7"/>
@@ -13084,7 +13065,7 @@
         <v>97</v>
       </c>
       <c r="O205" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P205" s="7"/>
       <c r="Q205" s="7"/>
@@ -13130,7 +13111,7 @@
         <v>97</v>
       </c>
       <c r="O206" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P206" s="7"/>
       <c r="Q206" s="7"/>
@@ -13173,10 +13154,10 @@
         <v>73</v>
       </c>
       <c r="N207" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
@@ -13222,7 +13203,7 @@
         <v>113</v>
       </c>
       <c r="O208" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="P208" s="7"/>
       <c r="Q208" s="7"/>
@@ -13314,7 +13295,7 @@
         <v>72</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
@@ -13452,7 +13433,7 @@
         <v>97</v>
       </c>
       <c r="O213" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="P213" s="7"/>
       <c r="Q213" s="7"/>
@@ -13544,7 +13525,7 @@
         <v>97</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P215" s="7"/>
       <c r="Q215" s="7"/>
@@ -13682,7 +13663,7 @@
         <v>97</v>
       </c>
       <c r="O218" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P218" s="7"/>
       <c r="Q218" s="7"/>
@@ -13728,7 +13709,7 @@
         <v>97</v>
       </c>
       <c r="O219" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P219" s="7"/>
       <c r="Q219" s="7"/>
@@ -13774,7 +13755,7 @@
         <v>97</v>
       </c>
       <c r="O220" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P220" s="7"/>
       <c r="Q220" s="7"/>
@@ -13863,10 +13844,10 @@
         <v>73</v>
       </c>
       <c r="N222" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O222" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P222" s="7"/>
       <c r="Q222" s="7"/>
@@ -13877,7 +13858,7 @@
         <v>571</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>300</v>
@@ -13923,7 +13904,7 @@
         <v>572</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>287</v>
@@ -13969,7 +13950,7 @@
         <v>573</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>565</v>
@@ -14004,7 +13985,7 @@
         <v>97</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P225" s="7"/>
       <c r="Q225" s="7"/>
@@ -14015,7 +13996,7 @@
         <v>574</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>557</v>
@@ -14047,10 +14028,10 @@
         <v>73</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O226" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P226" s="7"/>
       <c r="Q226" s="7"/>
@@ -14061,13 +14042,13 @@
         <v>575</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>321</v>
@@ -14087,16 +14068,16 @@
         <v>2</v>
       </c>
       <c r="L227" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="M227" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="N227" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="M227" s="7" t="s">
+      <c r="O227" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="N227" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="O227" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="P227" s="7"/>
       <c r="Q227" s="7"/>
@@ -14107,7 +14088,7 @@
         <v>523</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>558</v>
@@ -14153,7 +14134,7 @@
         <v>533</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>570</v>
@@ -14188,7 +14169,7 @@
         <v>97</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P229" s="7"/>
       <c r="Q229" s="7"/>
@@ -14199,13 +14180,13 @@
         <v>527</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>321</v>
@@ -14245,7 +14226,7 @@
         <v>554</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>560</v>
@@ -14280,7 +14261,7 @@
         <v>97</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
@@ -14291,7 +14272,7 @@
         <v>529</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>566</v>
@@ -14326,7 +14307,7 @@
         <v>72</v>
       </c>
       <c r="O232" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P232" s="7"/>
       <c r="Q232" s="7"/>
@@ -14337,7 +14318,7 @@
         <v>203</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>306</v>
@@ -14383,7 +14364,7 @@
         <v>540</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>562</v>
@@ -14418,7 +14399,7 @@
         <v>97</v>
       </c>
       <c r="O234" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P234" s="7"/>
       <c r="Q234" s="7"/>
@@ -14429,7 +14410,7 @@
         <v>203</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>306</v>
@@ -14475,13 +14456,13 @@
         <v>576</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>321</v>
@@ -14507,10 +14488,10 @@
         <v>128</v>
       </c>
       <c r="N236" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O236" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
@@ -14521,7 +14502,7 @@
         <v>577</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>202</v>
@@ -14567,13 +14548,13 @@
         <v>578</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>321</v>
@@ -14602,7 +14583,7 @@
         <v>113</v>
       </c>
       <c r="O238" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P238" s="7"/>
       <c r="Q238" s="7"/>
@@ -14613,13 +14594,13 @@
         <v>579</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E239" s="7" t="s">
         <v>321</v>
@@ -14648,7 +14629,7 @@
         <v>494</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
@@ -14659,13 +14640,13 @@
         <v>580</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E240" s="7" t="s">
         <v>321</v>
@@ -14694,7 +14675,7 @@
         <v>494</v>
       </c>
       <c r="O240" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P240" s="7"/>
       <c r="Q240" s="7"/>
@@ -14705,13 +14686,13 @@
         <v>581</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E241" s="7" t="s">
         <v>321</v>
@@ -14740,7 +14721,7 @@
         <v>97</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
@@ -14766,8 +14747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15028,65 +15009,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF7843F-ECBD-FB43-973C-50114BB7C454}">
-  <dimension ref="A1:R1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="11">
-        <v>2</v>
-      </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="11">
-        <v>2</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4B140-3239-D149-B8A5-3E42B0B3A8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17310D6C-9E89-084B-B4FB-CC46EE2AE9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9620" yWindow="960" windowWidth="29920" windowHeight="22480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IFNL-B" sheetId="2" r:id="rId1"/>
     <sheet name="Marsupials" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Removed" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="548">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -463,15 +463,6 @@
     <t>XP_001517931.2</t>
   </si>
   <si>
-    <t>xA</t>
-  </si>
-  <si>
-    <t>xE</t>
-  </si>
-  <si>
-    <t>xL</t>
-  </si>
-  <si>
     <t>xMa</t>
   </si>
   <si>
@@ -1528,12 +1519,6 @@
     <t>exon3456</t>
   </si>
   <si>
-    <t>Placental 1</t>
-  </si>
-  <si>
-    <t>Placental 2</t>
-  </si>
-  <si>
     <t>Scandentia1</t>
   </si>
   <si>
@@ -1592,6 +1577,108 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>Placental2</t>
+  </si>
+  <si>
+    <t>Placental1</t>
+  </si>
+  <si>
+    <t>Placental1_Afrotheria1</t>
+  </si>
+  <si>
+    <t>Placental1_Carlito1</t>
+  </si>
+  <si>
+    <t>Placental1_Carnivore2</t>
+  </si>
+  <si>
+    <t>Placental1_Chiroptera2</t>
+  </si>
+  <si>
+    <t>Placental1_Haplorhine1</t>
+  </si>
+  <si>
+    <t>Placental1_Manis1</t>
+  </si>
+  <si>
+    <t>Placental1_Perissodatyl1</t>
+  </si>
+  <si>
+    <t>Placental1_Rodent1</t>
+  </si>
+  <si>
+    <t>Placental1_RTG</t>
+  </si>
+  <si>
+    <t>Placental1_Xenarthra1</t>
+  </si>
+  <si>
+    <t>Placental2_Afrotheria1</t>
+  </si>
+  <si>
+    <t>Placental2_Carnivore1</t>
+  </si>
+  <si>
+    <t>Placental2_Cetartiodactyla1</t>
+  </si>
+  <si>
+    <t>Placental2_Chiroptera1</t>
+  </si>
+  <si>
+    <t>Placental2_Eulipotyphyla1</t>
+  </si>
+  <si>
+    <t>Placental2_Haplorhine1</t>
+  </si>
+  <si>
+    <t>Placental2_Perissodatyl1</t>
+  </si>
+  <si>
+    <t>Placental2_Rodent1</t>
+  </si>
+  <si>
+    <t>NK_Afrotheria1</t>
+  </si>
+  <si>
+    <t>NK_Carlito1</t>
+  </si>
+  <si>
+    <t>NK_Carnivore1</t>
+  </si>
+  <si>
+    <t>NK_Carnivore2</t>
+  </si>
+  <si>
+    <t>NK_Cetartiodactyla1</t>
+  </si>
+  <si>
+    <t>NK_Cetartiodactyla2</t>
+  </si>
+  <si>
+    <t>NK_Chiroptera1</t>
+  </si>
+  <si>
+    <t>NK_Chiroptera2</t>
+  </si>
+  <si>
+    <t>NK_Eulipotyphyla1</t>
+  </si>
+  <si>
+    <t>NK_Eulipotyphyla2</t>
+  </si>
+  <si>
+    <t>NK_Haplorhine1</t>
+  </si>
+  <si>
+    <t>NK_Rodent1</t>
+  </si>
+  <si>
+    <t>NK_Scandentia1</t>
+  </si>
+  <si>
+    <t>NK_Strepsirhine1</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1763,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1709,13 +1796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBEA4D6"/>
+        <fgColor rgb="FFFFDFED"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDFED"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2260,7 +2353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2293,16 +2386,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -3184,1972 +3286,2040 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="11"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>376</v>
+        <v>264</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>266</v>
+        <v>374</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>288</v>
+        <v>512</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>362</v>
+        <v>512</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>238</v>
+        <v>512</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>172</v>
+      <c r="A8" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>310</v>
+        <v>501</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>515</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>501</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>289</v>
+        <v>503</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>225</v>
+        <v>503</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>230</v>
+        <v>499</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>371</v>
+        <v>499</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>233</v>
+        <v>499</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>231</v>
+        <v>499</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>500</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>228</v>
+        <v>508</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>500</v>
+        <v>512</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>515</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>373</v>
+        <v>495</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="F25" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="J30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="F31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="H31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="F32" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="H32" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="F33" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="H33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="F34" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="H34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="F35" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="I35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="J35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>217</v>
+        <v>507</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>442</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>362</v>
+        <v>506</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="I38" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J38" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>362</v>
+        <v>506</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>243</v>
+        <v>506</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="I41" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J42" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="J43" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>245</v>
+        <v>510</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>369</v>
+        <v>510</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>246</v>
+        <v>510</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>289</v>
+        <v>511</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>289</v>
+        <v>511</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>289</v>
+        <v>511</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>239</v>
+        <v>511</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>239</v>
+        <v>512</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>225</v>
+        <v>512</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>225</v>
+        <v>512</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>226</v>
+        <v>504</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="J57" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="J58" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
@@ -5158,3158 +5328,3324 @@
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>367</v>
+        <v>499</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>152</v>
+        <v>499</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>152</v>
+        <v>499</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>233</v>
+        <v>499</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="J76" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>168</v>
+        <v>499</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="I77" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J77" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>168</v>
+        <v>499</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="I78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J78" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>374</v>
+        <v>499</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="J80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>234</v>
+        <v>499</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>228</v>
+        <v>508</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>228</v>
+        <v>508</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>155</v>
+        <v>495</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>301</v>
+        <v>495</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I97" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J97" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I98" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J98" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I99" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J99" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I100" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>237</v>
+        <v>506</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="K102" s="2"/>
+      <c r="L102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>222</v>
+        <v>509</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="K104" s="2"/>
+      <c r="L104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>360</v>
+        <v>509</v>
       </c>
       <c r="F105" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="I105" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J105" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="K106" s="2"/>
+      <c r="L106" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>221</v>
+        <v>501</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2"/>
+      <c r="L107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>242</v>
+        <v>510</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2"/>
+      <c r="L109" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>291</v>
+        <v>510</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="K111" s="2"/>
-      <c r="L111" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>291</v>
+        <v>510</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J112" s="2"/>
+      <c r="J112" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>223</v>
+        <v>502</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2"/>
+      <c r="L113" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>240</v>
+        <v>511</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>305</v>
+        <v>512</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>312</v>
+        <v>512</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>312</v>
+        <v>512</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>312</v>
+        <v>512</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J118" s="2"/>
+      <c r="J118" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>368</v>
+        <v>511</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="K119" s="2"/>
-      <c r="L119" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2"/>
+      <c r="L120" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J122" s="2"/>
+      <c r="J122" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K122" s="2"/>
-      <c r="L122" s="2">
-        <v>21278349</v>
-      </c>
+      <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J123" s="2"/>
+      <c r="J123" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K123" s="2"/>
-      <c r="L123" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>241</v>
+        <v>504</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>154</v>
+        <v>504</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="I125" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J125" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>154</v>
+        <v>504</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H126" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="I126" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J126" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>226</v>
+        <v>505</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="K127" s="2"/>
+      <c r="L127" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>234</v>
+        <v>499</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>233</v>
+        <v>499</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="L129" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>230</v>
+        <v>499</v>
       </c>
       <c r="F130" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="K130" s="2"/>
+      <c r="L130" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="J131" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J132" s="2"/>
+      <c r="J132" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>231</v>
+        <v>499</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="K133" s="2"/>
+      <c r="L133" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="F134" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J134" s="2"/>
+      <c r="J134" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="J135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K135" s="2"/>
+      <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="J136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K136" s="2"/>
+      <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="F137" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I137" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J137" s="2"/>
+      <c r="J137" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="F138" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="J138" s="2"/>
+      <c r="J138" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="F139" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="J139" s="2"/>
+      <c r="J139" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J140" s="2"/>
+      <c r="J140" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>168</v>
+        <v>499</v>
       </c>
       <c r="F141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H141" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="I141" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J141" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="J142" s="2"/>
+      <c r="J142" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J143" s="2"/>
+      <c r="J143" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>219</v>
+        <v>495</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="J144" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="K144" s="2"/>
+      <c r="L144" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>218</v>
+        <v>495</v>
       </c>
       <c r="F145" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="H145" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="J145" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="K145" s="2"/>
+      <c r="L145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>218</v>
+        <v>495</v>
       </c>
       <c r="F146" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="J146" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="K146" s="2"/>
+      <c r="L146" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="F147" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="I147" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J147" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="K147" s="2"/>
-      <c r="L147" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>220</v>
+        <v>495</v>
       </c>
       <c r="F148" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="K148" s="2"/>
+      <c r="L148" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="F149" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="H149" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="J149" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="K149" s="2"/>
+      <c r="L149" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="I150" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="J150" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>236</v>
+        <v>494</v>
       </c>
       <c r="F151" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>236</v>
+        <v>494</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="K152" s="2"/>
+      <c r="L152" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>232</v>
+        <v>496</v>
       </c>
       <c r="F153" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="J153" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J153" s="2" t="s">
+      <c r="K153" s="2"/>
+      <c r="L153" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>232</v>
+        <v>496</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="H154" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="J154" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="K154" s="2"/>
+      <c r="L154" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L168">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K168">
     <sortCondition ref="B2:B168"/>
-    <sortCondition ref="C2:C168"/>
-    <sortCondition ref="D2:D168"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8334,85 +8670,85 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
@@ -8424,43 +8760,43 @@
         <v>136</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="2"/>
@@ -8481,34 +8817,34 @@
         <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
@@ -8529,33 +8865,33 @@
         <v>141</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
@@ -8569,40 +8905,40 @@
         <v>74</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J33" s="7">
         <v>2</v>
@@ -8613,16 +8949,16 @@
         <v>2</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -8643,750 +8979,759 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E3" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="I17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="I18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="I19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="I20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="I21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
